--- a/classes_final.xlsx
+++ b/classes_final.xlsx
@@ -6401,11 +6401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E1164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A609" workbookViewId="0">
-      <selection activeCell="H631" sqref="H631"/>
+    <sheetView tabSelected="1" topLeftCell="A1159" workbookViewId="0">
+      <selection activeCell="C984" sqref="C984"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6434,7 +6433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6451,7 +6450,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6468,7 +6467,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6485,7 +6484,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6502,7 +6501,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6519,7 +6518,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -6536,7 +6535,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6553,7 +6552,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6570,7 +6569,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -6587,7 +6586,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -6604,7 +6603,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -6621,7 +6620,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -6638,7 +6637,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -6655,7 +6654,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -6672,7 +6671,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -6689,7 +6688,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -6706,7 +6705,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -6723,7 +6722,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -6740,7 +6739,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -6757,7 +6756,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -6774,7 +6773,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -6791,7 +6790,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -6808,7 +6807,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -6825,7 +6824,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -6842,7 +6841,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -6859,7 +6858,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -6876,7 +6875,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -6893,7 +6892,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -6910,7 +6909,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -6927,7 +6926,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -6944,7 +6943,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -6961,7 +6960,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -6978,7 +6977,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -6995,7 +6994,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -7012,7 +7011,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -7029,7 +7028,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -7046,7 +7045,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -7063,7 +7062,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -7080,7 +7079,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -7097,7 +7096,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -7114,7 +7113,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -7131,7 +7130,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -7148,7 +7147,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -7165,7 +7164,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -7182,7 +7181,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -7199,7 +7198,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -7216,7 +7215,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -7233,7 +7232,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -7250,7 +7249,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -7267,7 +7266,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -7284,7 +7283,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -7301,7 +7300,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -7318,7 +7317,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -7335,7 +7334,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -7352,7 +7351,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -7369,7 +7368,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -7386,7 +7385,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -7403,7 +7402,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -7420,7 +7419,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -7437,7 +7436,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -7454,7 +7453,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -7471,7 +7470,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -7488,7 +7487,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -7505,7 +7504,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -7522,7 +7521,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -7539,7 +7538,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -7556,7 +7555,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -7573,7 +7572,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -7590,7 +7589,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -7607,7 +7606,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -7624,7 +7623,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -7641,7 +7640,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -7658,7 +7657,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -7675,7 +7674,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -7692,7 +7691,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -7709,7 +7708,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -7726,7 +7725,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -7743,7 +7742,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -7760,7 +7759,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -7777,7 +7776,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -7794,7 +7793,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -7811,7 +7810,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -7828,7 +7827,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -7845,7 +7844,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -7862,7 +7861,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -7879,7 +7878,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -7896,7 +7895,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -7913,7 +7912,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -7930,7 +7929,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -7947,7 +7946,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -7964,7 +7963,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -7981,7 +7980,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -7998,7 +7997,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -8015,7 +8014,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -8032,7 +8031,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -8049,7 +8048,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -8066,7 +8065,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -8083,7 +8082,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -8100,7 +8099,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -8117,7 +8116,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -8134,7 +8133,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -8151,7 +8150,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -8168,7 +8167,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -8185,7 +8184,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -8202,7 +8201,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -8219,7 +8218,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -8236,7 +8235,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -8253,7 +8252,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -8270,7 +8269,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -8287,7 +8286,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -8304,7 +8303,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -8321,7 +8320,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -8338,7 +8337,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -8355,7 +8354,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -8372,7 +8371,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -8389,7 +8388,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -8406,7 +8405,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -8423,7 +8422,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -8440,7 +8439,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -8457,7 +8456,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -8474,7 +8473,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -8491,7 +8490,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -8508,7 +8507,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -8525,7 +8524,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -8542,7 +8541,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -8559,7 +8558,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -8576,7 +8575,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -8593,7 +8592,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -8610,7 +8609,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -8627,7 +8626,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -8644,7 +8643,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -8661,7 +8660,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -8678,7 +8677,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -8695,7 +8694,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -8712,7 +8711,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -8729,7 +8728,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -8746,7 +8745,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -8763,7 +8762,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -8780,7 +8779,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -8797,7 +8796,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -8814,7 +8813,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -8831,7 +8830,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -8848,7 +8847,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -8865,7 +8864,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -8882,7 +8881,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -8899,7 +8898,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -8916,7 +8915,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -8933,7 +8932,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -8950,7 +8949,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -8967,7 +8966,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -8984,7 +8983,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -9001,7 +9000,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -9018,7 +9017,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -9035,7 +9034,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -9052,7 +9051,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -9069,7 +9068,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -9086,7 +9085,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -9103,7 +9102,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -9120,7 +9119,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -9137,7 +9136,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -9154,7 +9153,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -9171,7 +9170,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -9188,7 +9187,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -9205,7 +9204,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -9222,7 +9221,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -9239,7 +9238,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -9256,7 +9255,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -9273,7 +9272,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -9290,7 +9289,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -9307,7 +9306,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -9324,7 +9323,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -9341,7 +9340,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -9358,7 +9357,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -9375,7 +9374,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -9392,7 +9391,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -9409,7 +9408,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -9426,7 +9425,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -9443,7 +9442,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -9460,7 +9459,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -9477,7 +9476,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -9494,7 +9493,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -9511,7 +9510,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -9528,7 +9527,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -9545,7 +9544,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -9562,7 +9561,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -9579,7 +9578,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -9596,7 +9595,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -9613,7 +9612,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -9630,7 +9629,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -9647,7 +9646,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -9664,7 +9663,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -9681,7 +9680,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -9698,7 +9697,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -9715,7 +9714,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -9732,7 +9731,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -9749,7 +9748,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -9766,7 +9765,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -9783,7 +9782,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -9800,7 +9799,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -9817,7 +9816,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -9834,7 +9833,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -9851,7 +9850,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -9868,7 +9867,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -9885,7 +9884,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -9902,7 +9901,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -9919,7 +9918,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -9936,7 +9935,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -9953,7 +9952,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -9970,7 +9969,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -9987,7 +9986,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -10004,7 +10003,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -10021,7 +10020,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -10038,7 +10037,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -10055,7 +10054,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -10072,7 +10071,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -10089,7 +10088,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -10106,7 +10105,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -10123,7 +10122,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -10140,7 +10139,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -10157,7 +10156,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -10174,7 +10173,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -10191,7 +10190,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -10208,7 +10207,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -10225,7 +10224,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -10242,7 +10241,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -10259,7 +10258,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -10276,7 +10275,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -10293,7 +10292,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -10310,7 +10309,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -10327,7 +10326,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -10344,7 +10343,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -10361,7 +10360,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -10378,7 +10377,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -10395,7 +10394,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -10412,7 +10411,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -10429,7 +10428,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -10446,7 +10445,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -10463,7 +10462,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -10480,7 +10479,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -10497,7 +10496,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -10514,7 +10513,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -10531,7 +10530,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -10548,7 +10547,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -10565,7 +10564,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -10582,7 +10581,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -10599,7 +10598,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -10616,7 +10615,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -10633,7 +10632,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -10650,7 +10649,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -10667,7 +10666,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -10684,7 +10683,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -10701,7 +10700,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -10718,7 +10717,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -10735,7 +10734,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -10752,7 +10751,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -10769,7 +10768,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -10786,7 +10785,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -10803,7 +10802,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -10820,7 +10819,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -10837,7 +10836,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -10854,7 +10853,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -10871,7 +10870,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -10888,7 +10887,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -10905,7 +10904,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -10922,7 +10921,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -10939,7 +10938,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -10956,7 +10955,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -10973,7 +10972,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -10990,7 +10989,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -11007,7 +11006,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -11024,7 +11023,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -11041,7 +11040,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -11058,7 +11057,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -11075,7 +11074,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -11092,7 +11091,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -11109,7 +11108,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -11126,7 +11125,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -11143,7 +11142,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -11160,7 +11159,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -11177,7 +11176,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -11194,7 +11193,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -11211,7 +11210,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -11228,7 +11227,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -11245,7 +11244,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -11262,7 +11261,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -11279,7 +11278,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -11296,7 +11295,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -11313,7 +11312,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -11330,7 +11329,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -11347,7 +11346,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -11364,7 +11363,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -11381,7 +11380,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -11398,7 +11397,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -11415,7 +11414,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -11432,7 +11431,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -11449,7 +11448,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -11466,7 +11465,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -11483,7 +11482,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -11500,7 +11499,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -11517,7 +11516,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -11534,7 +11533,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -11551,7 +11550,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -11568,7 +11567,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -11585,7 +11584,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -11602,7 +11601,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -11619,7 +11618,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -11636,7 +11635,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -11653,7 +11652,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -11670,7 +11669,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -11687,7 +11686,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -11704,7 +11703,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -11721,7 +11720,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -11738,7 +11737,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -11755,7 +11754,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -11772,7 +11771,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -11789,7 +11788,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -11806,7 +11805,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -11823,7 +11822,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -11840,7 +11839,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -11857,7 +11856,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -11874,7 +11873,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -11891,7 +11890,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -11908,7 +11907,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -11925,7 +11924,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -11942,7 +11941,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -11959,7 +11958,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -11976,7 +11975,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -11993,7 +11992,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -12010,7 +12009,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -12027,7 +12026,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -12044,7 +12043,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -12061,7 +12060,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -12078,7 +12077,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -12095,7 +12094,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -12112,7 +12111,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -12129,7 +12128,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -12146,7 +12145,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -12163,7 +12162,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -12180,7 +12179,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -12197,7 +12196,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -12214,7 +12213,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -12231,7 +12230,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -12248,7 +12247,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -12265,7 +12264,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -12282,7 +12281,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -12299,7 +12298,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -12316,7 +12315,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -12333,7 +12332,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -12350,7 +12349,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -12367,7 +12366,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -12384,7 +12383,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -12399,7 +12398,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -12414,7 +12413,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -12431,7 +12430,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -12448,7 +12447,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -12465,7 +12464,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -12482,7 +12481,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -12499,7 +12498,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -12516,7 +12515,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -12533,7 +12532,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -12550,7 +12549,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -12567,7 +12566,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -12584,7 +12583,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -12601,7 +12600,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -12618,7 +12617,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -12635,7 +12634,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -12652,7 +12651,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -12669,7 +12668,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -12686,7 +12685,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -12703,7 +12702,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -12720,7 +12719,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -12737,7 +12736,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -12754,7 +12753,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -12771,7 +12770,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -12788,7 +12787,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -12805,7 +12804,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -12822,7 +12821,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -12839,7 +12838,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -12856,7 +12855,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -12873,7 +12872,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -12890,7 +12889,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -12907,7 +12906,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -12924,7 +12923,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -12941,7 +12940,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -12958,7 +12957,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>385</v>
       </c>
@@ -12975,7 +12974,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>386</v>
       </c>
@@ -12992,7 +12991,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>387</v>
       </c>
@@ -13009,7 +13008,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>388</v>
       </c>
@@ -13026,7 +13025,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>389</v>
       </c>
@@ -13043,7 +13042,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>390</v>
       </c>
@@ -13060,7 +13059,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>391</v>
       </c>
@@ -13077,7 +13076,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>392</v>
       </c>
@@ -13094,7 +13093,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>393</v>
       </c>
@@ -13111,7 +13110,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>394</v>
       </c>
@@ -13128,7 +13127,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>395</v>
       </c>
@@ -13145,7 +13144,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>396</v>
       </c>
@@ -13162,7 +13161,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>397</v>
       </c>
@@ -13179,7 +13178,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>398</v>
       </c>
@@ -13196,7 +13195,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>399</v>
       </c>
@@ -13213,7 +13212,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>400</v>
       </c>
@@ -13230,7 +13229,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>401</v>
       </c>
@@ -13247,7 +13246,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>402</v>
       </c>
@@ -13264,7 +13263,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>403</v>
       </c>
@@ -13281,7 +13280,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>404</v>
       </c>
@@ -13298,7 +13297,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>405</v>
       </c>
@@ -13315,7 +13314,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>406</v>
       </c>
@@ -13332,7 +13331,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>407</v>
       </c>
@@ -13349,7 +13348,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>408</v>
       </c>
@@ -13366,7 +13365,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>409</v>
       </c>
@@ -13383,7 +13382,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>410</v>
       </c>
@@ -13400,7 +13399,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>411</v>
       </c>
@@ -13417,7 +13416,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>412</v>
       </c>
@@ -13434,7 +13433,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>413</v>
       </c>
@@ -13451,7 +13450,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>414</v>
       </c>
@@ -13468,7 +13467,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>415</v>
       </c>
@@ -13485,7 +13484,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>416</v>
       </c>
@@ -13502,7 +13501,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>417</v>
       </c>
@@ -13519,7 +13518,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>418</v>
       </c>
@@ -13536,7 +13535,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>419</v>
       </c>
@@ -13553,7 +13552,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>420</v>
       </c>
@@ -13570,7 +13569,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>421</v>
       </c>
@@ -13587,7 +13586,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>422</v>
       </c>
@@ -13604,7 +13603,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>423</v>
       </c>
@@ -13621,7 +13620,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>424</v>
       </c>
@@ -13638,7 +13637,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>425</v>
       </c>
@@ -13655,7 +13654,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>426</v>
       </c>
@@ -13672,7 +13671,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>427</v>
       </c>
@@ -13689,7 +13688,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>428</v>
       </c>
@@ -13706,7 +13705,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>429</v>
       </c>
@@ -13723,7 +13722,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>430</v>
       </c>
@@ -13740,7 +13739,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>431</v>
       </c>
@@ -13757,7 +13756,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>432</v>
       </c>
@@ -13774,7 +13773,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>433</v>
       </c>
@@ -13791,7 +13790,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>434</v>
       </c>
@@ -13808,7 +13807,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>435</v>
       </c>
@@ -13825,7 +13824,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>436</v>
       </c>
@@ -13842,7 +13841,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>437</v>
       </c>
@@ -13859,7 +13858,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>438</v>
       </c>
@@ -13876,7 +13875,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>439</v>
       </c>
@@ -13893,7 +13892,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>440</v>
       </c>
@@ -13910,7 +13909,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>441</v>
       </c>
@@ -13927,7 +13926,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>442</v>
       </c>
@@ -13944,7 +13943,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>443</v>
       </c>
@@ -13961,7 +13960,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>444</v>
       </c>
@@ -13978,7 +13977,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>445</v>
       </c>
@@ -13995,7 +13994,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>446</v>
       </c>
@@ -14012,7 +14011,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>447</v>
       </c>
@@ -14029,7 +14028,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>448</v>
       </c>
@@ -14046,7 +14045,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>449</v>
       </c>
@@ -14063,7 +14062,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>450</v>
       </c>
@@ -14080,7 +14079,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="452" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>451</v>
       </c>
@@ -14097,7 +14096,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>452</v>
       </c>
@@ -14114,7 +14113,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="454" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>453</v>
       </c>
@@ -14131,7 +14130,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>454</v>
       </c>
@@ -14148,7 +14147,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>455</v>
       </c>
@@ -14165,7 +14164,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>456</v>
       </c>
@@ -14182,7 +14181,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>457</v>
       </c>
@@ -14199,7 +14198,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>458</v>
       </c>
@@ -14216,7 +14215,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>459</v>
       </c>
@@ -14233,7 +14232,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>460</v>
       </c>
@@ -14250,7 +14249,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>461</v>
       </c>
@@ -14267,7 +14266,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>462</v>
       </c>
@@ -14284,7 +14283,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="464" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>463</v>
       </c>
@@ -14301,7 +14300,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="465" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>464</v>
       </c>
@@ -14318,7 +14317,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>465</v>
       </c>
@@ -14335,7 +14334,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="467" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>466</v>
       </c>
@@ -14352,7 +14351,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>467</v>
       </c>
@@ -14369,7 +14368,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>468</v>
       </c>
@@ -14386,7 +14385,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="470" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>469</v>
       </c>
@@ -14403,7 +14402,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="471" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>470</v>
       </c>
@@ -14420,7 +14419,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="472" spans="1:5" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>471</v>
       </c>
@@ -14437,7 +14436,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="473" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>472</v>
       </c>
@@ -14454,7 +14453,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>473</v>
       </c>
@@ -14471,7 +14470,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="475" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>474</v>
       </c>
@@ -14488,7 +14487,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="476" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>475</v>
       </c>
@@ -14505,7 +14504,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="477" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>476</v>
       </c>
@@ -14522,7 +14521,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="478" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>477</v>
       </c>
@@ -14539,7 +14538,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="479" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>478</v>
       </c>
@@ -14556,7 +14555,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="480" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>479</v>
       </c>
@@ -14573,7 +14572,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="481" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>480</v>
       </c>
@@ -14590,7 +14589,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="482" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>481</v>
       </c>
@@ -14607,7 +14606,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="483" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>482</v>
       </c>
@@ -14624,7 +14623,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="484" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>483</v>
       </c>
@@ -14641,7 +14640,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="485" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>484</v>
       </c>
@@ -14658,7 +14657,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="486" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>485</v>
       </c>
@@ -14675,7 +14674,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="487" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>486</v>
       </c>
@@ -14692,7 +14691,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="488" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>487</v>
       </c>
@@ -14709,7 +14708,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="489" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>488</v>
       </c>
@@ -14726,7 +14725,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="490" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>489</v>
       </c>
@@ -14743,7 +14742,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="491" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>490</v>
       </c>
@@ -14760,7 +14759,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="492" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>491</v>
       </c>
@@ -14777,7 +14776,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="493" spans="1:5" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>492</v>
       </c>
@@ -14794,7 +14793,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="494" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>493</v>
       </c>
@@ -14811,7 +14810,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="495" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>494</v>
       </c>
@@ -14828,7 +14827,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="496" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>495</v>
       </c>
@@ -14845,7 +14844,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="497" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>496</v>
       </c>
@@ -14862,7 +14861,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="498" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>497</v>
       </c>
@@ -14879,7 +14878,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>498</v>
       </c>
@@ -14896,7 +14895,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="500" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>499</v>
       </c>
@@ -14913,7 +14912,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>500</v>
       </c>
@@ -14930,7 +14929,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>501</v>
       </c>
@@ -14947,7 +14946,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>502</v>
       </c>
@@ -14964,7 +14963,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="504" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>503</v>
       </c>
@@ -14981,7 +14980,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>504</v>
       </c>
@@ -14998,7 +14997,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="506" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>505</v>
       </c>
@@ -15015,7 +15014,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="507" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>506</v>
       </c>
@@ -15032,7 +15031,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="508" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>507</v>
       </c>
@@ -15049,7 +15048,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="509" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>508</v>
       </c>
@@ -15066,7 +15065,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="510" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>509</v>
       </c>
@@ -15083,7 +15082,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="511" spans="1:5" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>510</v>
       </c>
@@ -15100,7 +15099,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="512" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>511</v>
       </c>
@@ -15117,7 +15116,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="513" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>512</v>
       </c>
@@ -15134,7 +15133,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="514" spans="1:5" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>513</v>
       </c>
@@ -15151,7 +15150,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="515" spans="1:5" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>514</v>
       </c>
@@ -15168,7 +15167,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="516" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>515</v>
       </c>
@@ -15185,7 +15184,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="517" spans="1:5" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>516</v>
       </c>
@@ -15202,7 +15201,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="518" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>517</v>
       </c>
@@ -15219,7 +15218,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="519" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>518</v>
       </c>
@@ -15236,7 +15235,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="520" spans="1:5" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>519</v>
       </c>
@@ -15253,7 +15252,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="521" spans="1:5" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>520</v>
       </c>
@@ -15270,7 +15269,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="522" spans="1:5" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>521</v>
       </c>
@@ -15287,7 +15286,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="523" spans="1:5" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>522</v>
       </c>
@@ -15304,7 +15303,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="524" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>523</v>
       </c>
@@ -15321,7 +15320,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="525" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>524</v>
       </c>
@@ -15338,7 +15337,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="526" spans="1:5" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>525</v>
       </c>
@@ -15355,7 +15354,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="527" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>526</v>
       </c>
@@ -15372,7 +15371,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="528" spans="1:5" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>527</v>
       </c>
@@ -15389,7 +15388,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="529" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>528</v>
       </c>
@@ -15406,7 +15405,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="530" spans="1:5" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>529</v>
       </c>
@@ -15423,7 +15422,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="531" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>530</v>
       </c>
@@ -15440,7 +15439,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="532" spans="1:5" ht="330" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>531</v>
       </c>
@@ -15457,7 +15456,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="533" spans="1:5" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" ht="345" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>532</v>
       </c>
@@ -15474,7 +15473,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="534" spans="1:5" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" ht="345" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>533</v>
       </c>
@@ -15491,7 +15490,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="535" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>534</v>
       </c>
@@ -15508,7 +15507,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="536" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>535</v>
       </c>
@@ -15525,7 +15524,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="537" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>536</v>
       </c>
@@ -15542,7 +15541,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="538" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>537</v>
       </c>
@@ -15559,7 +15558,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="539" spans="1:5" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>538</v>
       </c>
@@ -15576,7 +15575,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="540" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>539</v>
       </c>
@@ -15593,7 +15592,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="541" spans="1:5" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>540</v>
       </c>
@@ -15610,7 +15609,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="542" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>541</v>
       </c>
@@ -15627,7 +15626,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="543" spans="1:5" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>542</v>
       </c>
@@ -15644,7 +15643,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="544" spans="1:5" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>543</v>
       </c>
@@ -15661,7 +15660,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="545" spans="1:5" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>544</v>
       </c>
@@ -15678,7 +15677,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="546" spans="1:5" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>545</v>
       </c>
@@ -15695,7 +15694,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="547" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>546</v>
       </c>
@@ -15712,7 +15711,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="548" spans="1:5" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>547</v>
       </c>
@@ -15729,7 +15728,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="549" spans="1:5" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>548</v>
       </c>
@@ -15746,7 +15745,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="550" spans="1:5" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>549</v>
       </c>
@@ -15763,7 +15762,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="551" spans="1:5" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>550</v>
       </c>
@@ -15780,7 +15779,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="552" spans="1:5" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>551</v>
       </c>
@@ -15797,7 +15796,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="553" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>552</v>
       </c>
@@ -15814,7 +15813,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="554" spans="1:5" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>553</v>
       </c>
@@ -15831,7 +15830,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="555" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>554</v>
       </c>
@@ -15848,7 +15847,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="556" spans="1:5" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>555</v>
       </c>
@@ -15865,7 +15864,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="557" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>556</v>
       </c>
@@ -15882,7 +15881,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="558" spans="1:5" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>557</v>
       </c>
@@ -15899,7 +15898,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="559" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>558</v>
       </c>
@@ -15916,7 +15915,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="560" spans="1:5" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>559</v>
       </c>
@@ -15933,7 +15932,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="561" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>560</v>
       </c>
@@ -15950,7 +15949,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="562" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>561</v>
       </c>
@@ -15967,7 +15966,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="563" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>562</v>
       </c>
@@ -15984,7 +15983,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="564" spans="1:5" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>563</v>
       </c>
@@ -16001,7 +16000,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="565" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>564</v>
       </c>
@@ -16018,7 +16017,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="566" spans="1:5" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>565</v>
       </c>
@@ -16035,7 +16034,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="567" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>566</v>
       </c>
@@ -16052,7 +16051,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="568" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>567</v>
       </c>
@@ -16069,7 +16068,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="569" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>568</v>
       </c>
@@ -16086,7 +16085,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="570" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>569</v>
       </c>
@@ -16103,7 +16102,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="571" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>570</v>
       </c>
@@ -16120,7 +16119,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="572" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>571</v>
       </c>
@@ -16137,7 +16136,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="573" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>572</v>
       </c>
@@ -16154,7 +16153,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="574" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>573</v>
       </c>
@@ -16171,7 +16170,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="575" spans="1:5" ht="300" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>574</v>
       </c>
@@ -16188,7 +16187,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="576" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
         <v>575</v>
       </c>
@@ -16205,7 +16204,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="577" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>576</v>
       </c>
@@ -16222,7 +16221,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="578" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>577</v>
       </c>
@@ -16239,7 +16238,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="579" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>578</v>
       </c>
@@ -16256,7 +16255,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="580" spans="1:5" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>579</v>
       </c>
@@ -16273,7 +16272,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="581" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>580</v>
       </c>
@@ -16290,7 +16289,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="582" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>581</v>
       </c>
@@ -16307,7 +16306,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="583" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>582</v>
       </c>
@@ -16324,7 +16323,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="584" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>583</v>
       </c>
@@ -19401,7 +19400,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="765" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A765" s="2">
         <v>764</v>
       </c>
@@ -19418,7 +19417,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="766" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A766" s="2">
         <v>765</v>
       </c>
@@ -19435,7 +19434,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="767" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A767" s="2">
         <v>766</v>
       </c>
@@ -19452,7 +19451,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="768" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A768" s="2">
         <v>767</v>
       </c>
@@ -19469,7 +19468,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="769" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A769" s="2">
         <v>768</v>
       </c>
@@ -19486,7 +19485,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="770" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A770" s="2">
         <v>769</v>
       </c>
@@ -19503,7 +19502,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="771" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A771" s="2">
         <v>770</v>
       </c>
@@ -19520,7 +19519,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="772" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A772" s="2">
         <v>771</v>
       </c>
@@ -19537,7 +19536,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="773" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A773" s="2">
         <v>772</v>
       </c>
@@ -19554,7 +19553,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="774" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A774" s="2">
         <v>773</v>
       </c>
@@ -19571,7 +19570,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="775" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A775" s="2">
         <v>774</v>
       </c>
@@ -19588,7 +19587,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="776" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A776" s="2">
         <v>775</v>
       </c>
@@ -19605,7 +19604,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="777" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A777" s="2">
         <v>776</v>
       </c>
@@ -19622,7 +19621,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="778" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A778" s="2">
         <v>777</v>
       </c>
@@ -19639,7 +19638,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="779" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A779" s="2">
         <v>778</v>
       </c>
@@ -19656,7 +19655,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="780" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A780" s="2">
         <v>779</v>
       </c>
@@ -19673,7 +19672,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="781" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A781" s="2">
         <v>780</v>
       </c>
@@ -19690,7 +19689,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="782" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A782" s="2">
         <v>781</v>
       </c>
@@ -19707,7 +19706,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="783" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A783" s="2">
         <v>782</v>
       </c>
@@ -19724,7 +19723,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="784" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A784" s="2">
         <v>783</v>
       </c>
@@ -19741,7 +19740,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="785" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A785" s="2">
         <v>784</v>
       </c>
@@ -19758,7 +19757,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="786" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A786" s="2">
         <v>785</v>
       </c>
@@ -19775,7 +19774,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="787" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A787" s="2">
         <v>786</v>
       </c>
@@ -19792,7 +19791,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="788" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A788" s="2">
         <v>787</v>
       </c>
@@ -19809,7 +19808,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="789" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A789" s="2">
         <v>788</v>
       </c>
@@ -19826,7 +19825,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="790" spans="1:5" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A790" s="2">
         <v>789</v>
       </c>
@@ -19843,7 +19842,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="791" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A791" s="2">
         <v>790</v>
       </c>
@@ -19860,7 +19859,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="792" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A792" s="2">
         <v>791</v>
       </c>
@@ -19877,7 +19876,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="793" spans="1:5" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A793" s="2">
         <v>792</v>
       </c>
@@ -19894,7 +19893,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="794" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A794" s="2">
         <v>793</v>
       </c>
@@ -19911,7 +19910,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="795" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A795" s="2">
         <v>794</v>
       </c>
@@ -19928,7 +19927,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="796" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A796" s="2">
         <v>795</v>
       </c>
@@ -19945,7 +19944,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="797" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A797" s="2">
         <v>796</v>
       </c>
@@ -19962,7 +19961,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="798" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A798" s="2">
         <v>797</v>
       </c>
@@ -19979,7 +19978,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="799" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A799" s="2">
         <v>798</v>
       </c>
@@ -19996,7 +19995,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="800" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A800" s="2">
         <v>799</v>
       </c>
@@ -20013,7 +20012,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="801" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A801" s="2">
         <v>800</v>
       </c>
@@ -20030,7 +20029,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="802" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A802" s="2">
         <v>801</v>
       </c>
@@ -20047,7 +20046,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="803" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A803" s="2">
         <v>802</v>
       </c>
@@ -20064,7 +20063,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="804" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A804" s="2">
         <v>803</v>
       </c>
@@ -20081,7 +20080,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="805" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A805" s="2">
         <v>804</v>
       </c>
@@ -20098,7 +20097,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="806" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A806" s="2">
         <v>805</v>
       </c>
@@ -20115,7 +20114,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="807" spans="1:5" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A807" s="2">
         <v>806</v>
       </c>
@@ -20132,7 +20131,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="808" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A808" s="2">
         <v>807</v>
       </c>
@@ -20149,7 +20148,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="809" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A809" s="2">
         <v>808</v>
       </c>
@@ -20166,7 +20165,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="810" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A810" s="2">
         <v>809</v>
       </c>
@@ -20183,7 +20182,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="811" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A811" s="2">
         <v>810</v>
       </c>
@@ -20200,7 +20199,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="812" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A812" s="2">
         <v>811</v>
       </c>
@@ -20217,7 +20216,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="813" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A813" s="2">
         <v>812</v>
       </c>
@@ -20234,7 +20233,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="814" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A814" s="2">
         <v>813</v>
       </c>
@@ -20251,7 +20250,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="815" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A815" s="2">
         <v>814</v>
       </c>
@@ -20268,7 +20267,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="816" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A816" s="2">
         <v>815</v>
       </c>
@@ -20285,7 +20284,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="817" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A817" s="2">
         <v>816</v>
       </c>
@@ -20302,7 +20301,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="818" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A818" s="2">
         <v>817</v>
       </c>
@@ -20319,7 +20318,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="819" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A819" s="2">
         <v>818</v>
       </c>
@@ -20336,7 +20335,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="820" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A820" s="2">
         <v>819</v>
       </c>
@@ -20353,7 +20352,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="821" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A821" s="2">
         <v>820</v>
       </c>
@@ -20370,7 +20369,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="822" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A822" s="2">
         <v>821</v>
       </c>
@@ -20387,7 +20386,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="823" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A823" s="2">
         <v>822</v>
       </c>
@@ -20404,7 +20403,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="824" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A824" s="2">
         <v>823</v>
       </c>
@@ -20421,7 +20420,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="825" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A825" s="2">
         <v>824</v>
       </c>
@@ -20438,7 +20437,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="826" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A826" s="2">
         <v>825</v>
       </c>
@@ -20455,7 +20454,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="827" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A827" s="2">
         <v>826</v>
       </c>
@@ -20472,7 +20471,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="828" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A828" s="2">
         <v>827</v>
       </c>
@@ -20489,7 +20488,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="829" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A829" s="2">
         <v>828</v>
       </c>
@@ -20506,7 +20505,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="830" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A830" s="2">
         <v>829</v>
       </c>
@@ -20523,7 +20522,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="831" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A831" s="2">
         <v>830</v>
       </c>
@@ -20540,7 +20539,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="832" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A832" s="2">
         <v>831</v>
       </c>
@@ -20557,7 +20556,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="833" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A833" s="2">
         <v>832</v>
       </c>
@@ -20574,7 +20573,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="834" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A834" s="2">
         <v>833</v>
       </c>
@@ -20591,7 +20590,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="835" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A835" s="2">
         <v>834</v>
       </c>
@@ -20608,7 +20607,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="836" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A836" s="2">
         <v>835</v>
       </c>
@@ -20625,7 +20624,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="837" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A837" s="2">
         <v>836</v>
       </c>
@@ -20642,7 +20641,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="838" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A838" s="2">
         <v>837</v>
       </c>
@@ -20659,7 +20658,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="839" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A839" s="2">
         <v>838</v>
       </c>
@@ -20676,7 +20675,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="840" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A840" s="2">
         <v>839</v>
       </c>
@@ -20693,7 +20692,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="841" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A841" s="2">
         <v>840</v>
       </c>
@@ -20710,7 +20709,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="842" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A842" s="2">
         <v>841</v>
       </c>
@@ -20727,7 +20726,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="843" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A843" s="2">
         <v>842</v>
       </c>
@@ -20744,7 +20743,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="844" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A844" s="2">
         <v>843</v>
       </c>
@@ -20761,7 +20760,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="845" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A845" s="2">
         <v>844</v>
       </c>
@@ -20778,7 +20777,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="846" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A846" s="2">
         <v>845</v>
       </c>
@@ -20795,7 +20794,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="847" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A847" s="2">
         <v>846</v>
       </c>
@@ -20812,7 +20811,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="848" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A848" s="2">
         <v>847</v>
       </c>
@@ -20829,7 +20828,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="849" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A849" s="2">
         <v>848</v>
       </c>
@@ -20846,7 +20845,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="850" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A850" s="2">
         <v>849</v>
       </c>
@@ -20863,7 +20862,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="851" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A851" s="2">
         <v>850</v>
       </c>
@@ -20880,7 +20879,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="852" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A852" s="2">
         <v>851</v>
       </c>
@@ -20897,7 +20896,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="853" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A853" s="2">
         <v>852</v>
       </c>
@@ -20914,7 +20913,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="854" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A854" s="2">
         <v>853</v>
       </c>
@@ -20931,7 +20930,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="855" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A855" s="2">
         <v>854</v>
       </c>
@@ -20948,7 +20947,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="856" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A856" s="2">
         <v>855</v>
       </c>
@@ -20965,7 +20964,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="857" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A857" s="2">
         <v>856</v>
       </c>
@@ -20982,7 +20981,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="858" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A858" s="2">
         <v>857</v>
       </c>
@@ -20999,7 +20998,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="859" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A859" s="2">
         <v>858</v>
       </c>
@@ -21016,7 +21015,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="860" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A860" s="2">
         <v>859</v>
       </c>
@@ -21033,7 +21032,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="861" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A861" s="2">
         <v>860</v>
       </c>
@@ -21050,7 +21049,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="862" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A862" s="2">
         <v>861</v>
       </c>
@@ -21067,7 +21066,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="863" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A863" s="2">
         <v>862</v>
       </c>
@@ -21084,7 +21083,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="864" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A864" s="2">
         <v>863</v>
       </c>
@@ -21101,7 +21100,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="865" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A865" s="2">
         <v>864</v>
       </c>
@@ -21118,7 +21117,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="866" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A866" s="2">
         <v>865</v>
       </c>
@@ -21135,7 +21134,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="867" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A867" s="2">
         <v>866</v>
       </c>
@@ -21152,7 +21151,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="868" spans="1:5" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A868" s="2">
         <v>867</v>
       </c>
@@ -21169,7 +21168,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="869" spans="1:5" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A869" s="2">
         <v>868</v>
       </c>
@@ -21186,7 +21185,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="870" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A870" s="2">
         <v>869</v>
       </c>
@@ -21203,7 +21202,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="871" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A871" s="2">
         <v>870</v>
       </c>
@@ -21220,7 +21219,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="872" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A872" s="2">
         <v>871</v>
       </c>
@@ -21237,7 +21236,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="873" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A873" s="2">
         <v>872</v>
       </c>
@@ -21254,7 +21253,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="874" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A874" s="2">
         <v>873</v>
       </c>
@@ -21271,7 +21270,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="875" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A875" s="2">
         <v>874</v>
       </c>
@@ -21288,7 +21287,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="876" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A876" s="2">
         <v>875</v>
       </c>
@@ -21305,7 +21304,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="877" spans="1:5" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A877" s="2">
         <v>876</v>
       </c>
@@ -21322,7 +21321,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="878" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A878" s="2">
         <v>877</v>
       </c>
@@ -21339,7 +21338,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="879" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A879" s="2">
         <v>878</v>
       </c>
@@ -21356,7 +21355,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="880" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A880" s="2">
         <v>879</v>
       </c>
@@ -21373,7 +21372,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="881" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A881" s="2">
         <v>880</v>
       </c>
@@ -21390,7 +21389,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="882" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A882" s="2">
         <v>881</v>
       </c>
@@ -21407,7 +21406,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="883" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A883" s="2">
         <v>882</v>
       </c>
@@ -21424,7 +21423,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="884" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A884" s="2">
         <v>883</v>
       </c>
@@ -21441,7 +21440,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="885" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A885" s="2">
         <v>884</v>
       </c>
@@ -21458,7 +21457,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="886" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A886" s="2">
         <v>885</v>
       </c>
@@ -21475,7 +21474,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="887" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A887" s="2">
         <v>886</v>
       </c>
@@ -21492,7 +21491,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="888" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A888" s="2">
         <v>887</v>
       </c>
@@ -21509,7 +21508,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="889" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A889" s="2">
         <v>888</v>
       </c>
@@ -21526,7 +21525,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="890" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A890" s="2">
         <v>889</v>
       </c>
@@ -21543,7 +21542,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="891" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A891" s="2">
         <v>890</v>
       </c>
@@ -21560,7 +21559,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="892" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A892" s="2">
         <v>891</v>
       </c>
@@ -21577,7 +21576,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="893" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A893" s="2">
         <v>892</v>
       </c>
@@ -21594,7 +21593,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="894" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A894" s="2">
         <v>893</v>
       </c>
@@ -21611,7 +21610,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="895" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A895" s="2">
         <v>894</v>
       </c>
@@ -21628,7 +21627,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="896" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A896" s="2">
         <v>895</v>
       </c>
@@ -21645,7 +21644,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="897" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A897" s="2">
         <v>896</v>
       </c>
@@ -21662,7 +21661,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="898" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A898" s="2">
         <v>897</v>
       </c>
@@ -21679,7 +21678,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="899" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A899" s="2">
         <v>898</v>
       </c>
@@ -21696,7 +21695,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="900" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A900" s="2">
         <v>899</v>
       </c>
@@ -21713,7 +21712,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="901" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A901" s="2">
         <v>900</v>
       </c>
@@ -21730,7 +21729,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="902" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A902" s="2">
         <v>901</v>
       </c>
@@ -21747,7 +21746,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="903" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A903" s="2">
         <v>902</v>
       </c>
@@ -21764,7 +21763,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="904" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A904" s="2">
         <v>903</v>
       </c>
@@ -21781,7 +21780,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="905" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A905" s="2">
         <v>904</v>
       </c>
@@ -21798,7 +21797,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="906" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A906" s="2">
         <v>905</v>
       </c>
@@ -21815,7 +21814,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="907" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A907" s="2">
         <v>906</v>
       </c>
@@ -21832,7 +21831,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="908" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A908" s="2">
         <v>907</v>
       </c>
@@ -21849,7 +21848,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="909" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A909" s="2">
         <v>908</v>
       </c>
@@ -21866,7 +21865,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="910" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A910" s="2">
         <v>909</v>
       </c>
@@ -21883,7 +21882,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="911" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A911" s="2">
         <v>910</v>
       </c>
@@ -21900,7 +21899,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="912" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A912" s="2">
         <v>911</v>
       </c>
@@ -21917,7 +21916,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="913" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A913" s="2">
         <v>912</v>
       </c>
@@ -21934,7 +21933,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="914" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A914" s="2">
         <v>913</v>
       </c>
@@ -21951,7 +21950,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="915" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A915" s="2">
         <v>914</v>
       </c>
@@ -21968,7 +21967,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="916" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A916" s="2">
         <v>915</v>
       </c>
@@ -21985,7 +21984,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="917" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A917" s="2">
         <v>916</v>
       </c>
@@ -22002,7 +22001,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="918" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A918" s="2">
         <v>917</v>
       </c>
@@ -22019,7 +22018,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="919" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A919" s="2">
         <v>918</v>
       </c>
@@ -22036,7 +22035,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="920" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A920" s="2">
         <v>919</v>
       </c>
@@ -22053,7 +22052,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="921" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A921" s="2">
         <v>920</v>
       </c>
@@ -22070,7 +22069,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="922" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A922" s="2">
         <v>921</v>
       </c>
@@ -22087,7 +22086,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="923" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A923" s="2">
         <v>922</v>
       </c>
@@ -22104,7 +22103,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="924" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A924" s="2">
         <v>923</v>
       </c>
@@ -22121,7 +22120,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="925" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A925" s="2">
         <v>924</v>
       </c>
@@ -22138,7 +22137,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="926" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A926" s="2">
         <v>925</v>
       </c>
@@ -22155,7 +22154,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="927" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A927" s="2">
         <v>926</v>
       </c>
@@ -22172,7 +22171,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="928" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A928" s="2">
         <v>927</v>
       </c>
@@ -22189,7 +22188,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="929" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A929" s="2">
         <v>928</v>
       </c>
@@ -22206,7 +22205,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="930" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A930" s="2">
         <v>929</v>
       </c>
@@ -22223,7 +22222,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="931" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A931" s="2">
         <v>930</v>
       </c>
@@ -22240,7 +22239,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="932" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A932" s="2">
         <v>931</v>
       </c>
@@ -22257,7 +22256,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="933" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A933" s="2">
         <v>932</v>
       </c>
@@ -22274,7 +22273,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="934" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A934" s="2">
         <v>933</v>
       </c>
@@ -22291,7 +22290,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="935" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A935" s="2">
         <v>934</v>
       </c>
@@ -22308,7 +22307,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="936" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A936" s="2">
         <v>935</v>
       </c>
@@ -22325,7 +22324,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="937" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A937" s="2">
         <v>936</v>
       </c>
@@ -22342,7 +22341,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="938" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A938" s="2">
         <v>937</v>
       </c>
@@ -22359,7 +22358,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="939" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A939" s="2">
         <v>938</v>
       </c>
@@ -22376,7 +22375,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="940" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A940" s="2">
         <v>939</v>
       </c>
@@ -22393,7 +22392,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="941" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A941" s="2">
         <v>940</v>
       </c>
@@ -22410,7 +22409,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="942" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A942" s="2">
         <v>941</v>
       </c>
@@ -22427,7 +22426,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="943" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A943" s="2">
         <v>942</v>
       </c>
@@ -22444,7 +22443,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="944" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A944" s="2">
         <v>943</v>
       </c>
@@ -22461,7 +22460,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="945" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A945" s="2">
         <v>944</v>
       </c>
@@ -22478,7 +22477,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="946" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A946" s="2">
         <v>945</v>
       </c>
@@ -22495,7 +22494,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="947" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A947" s="2">
         <v>946</v>
       </c>
@@ -22512,7 +22511,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="948" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A948" s="2">
         <v>947</v>
       </c>
@@ -22529,7 +22528,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="949" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A949" s="2">
         <v>948</v>
       </c>
@@ -22546,7 +22545,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="950" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A950" s="2">
         <v>949</v>
       </c>
@@ -22563,7 +22562,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="951" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A951" s="2">
         <v>950</v>
       </c>
@@ -22580,7 +22579,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="952" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A952" s="2">
         <v>951</v>
       </c>
@@ -22597,7 +22596,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="953" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A953" s="2">
         <v>952</v>
       </c>
@@ -22614,7 +22613,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="954" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A954" s="2">
         <v>953</v>
       </c>
@@ -22631,7 +22630,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="955" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A955" s="2">
         <v>954</v>
       </c>
@@ -22648,7 +22647,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="956" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A956" s="2">
         <v>955</v>
       </c>
@@ -22665,7 +22664,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="957" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A957" s="2">
         <v>956</v>
       </c>
@@ -22682,7 +22681,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="958" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A958" s="2">
         <v>957</v>
       </c>
@@ -22699,7 +22698,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="959" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A959" s="2">
         <v>958</v>
       </c>
@@ -22716,7 +22715,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="960" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A960" s="2">
         <v>959</v>
       </c>
@@ -22733,7 +22732,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="961" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A961" s="2">
         <v>960</v>
       </c>
@@ -22750,7 +22749,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="962" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A962" s="2">
         <v>961</v>
       </c>
@@ -22767,7 +22766,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="963" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A963" s="2">
         <v>962</v>
       </c>
@@ -22784,7 +22783,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="964" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A964" s="2">
         <v>963</v>
       </c>
@@ -22801,7 +22800,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="965" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A965" s="2">
         <v>964</v>
       </c>
@@ -22818,7 +22817,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="966" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A966" s="2">
         <v>965</v>
       </c>
@@ -22835,7 +22834,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="967" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A967" s="2">
         <v>966</v>
       </c>
@@ -22852,7 +22851,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="968" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A968" s="2">
         <v>967</v>
       </c>
@@ -22869,7 +22868,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="969" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A969" s="2">
         <v>968</v>
       </c>
@@ -22886,7 +22885,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="970" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A970" s="2">
         <v>969</v>
       </c>
@@ -22903,7 +22902,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="971" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A971" s="2">
         <v>970</v>
       </c>
@@ -22920,7 +22919,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="972" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A972" s="2">
         <v>971</v>
       </c>
@@ -22937,7 +22936,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="973" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A973" s="2">
         <v>972</v>
       </c>
@@ -22954,7 +22953,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="974" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A974" s="2">
         <v>973</v>
       </c>
@@ -22971,7 +22970,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="975" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A975" s="2">
         <v>974</v>
       </c>
@@ -22988,7 +22987,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="976" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A976" s="2">
         <v>975</v>
       </c>
@@ -23005,7 +23004,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="977" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A977" s="2">
         <v>976</v>
       </c>
@@ -23022,7 +23021,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="978" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A978" s="2">
         <v>977</v>
       </c>
@@ -23039,7 +23038,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="979" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A979" s="2">
         <v>978</v>
       </c>
@@ -23056,7 +23055,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="980" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A980" s="2">
         <v>979</v>
       </c>
@@ -23073,7 +23072,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="981" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A981" s="2">
         <v>980</v>
       </c>
@@ -23090,7 +23089,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="982" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A982" s="2">
         <v>981</v>
       </c>
@@ -23107,7 +23106,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="983" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A983" s="2">
         <v>982</v>
       </c>
@@ -23124,7 +23123,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="984" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A984" s="2">
         <v>983</v>
       </c>
@@ -23141,7 +23140,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="985" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A985" s="2">
         <v>984</v>
       </c>
@@ -23158,7 +23157,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="986" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A986" s="2">
         <v>985</v>
       </c>
@@ -23175,7 +23174,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="987" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A987" s="2">
         <v>986</v>
       </c>
@@ -23192,7 +23191,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="988" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A988" s="2">
         <v>987</v>
       </c>
@@ -23209,7 +23208,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="989" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A989" s="2">
         <v>988</v>
       </c>
@@ -23226,7 +23225,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="990" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A990" s="2">
         <v>989</v>
       </c>
@@ -23243,7 +23242,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="991" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A991" s="2">
         <v>990</v>
       </c>
@@ -23260,7 +23259,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="992" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A992" s="2">
         <v>991</v>
       </c>
@@ -23277,7 +23276,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="993" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A993" s="2">
         <v>992</v>
       </c>
@@ -23294,7 +23293,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="994" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A994" s="2">
         <v>993</v>
       </c>
@@ -23311,7 +23310,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="995" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A995" s="2">
         <v>994</v>
       </c>
@@ -23328,7 +23327,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="996" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A996" s="2">
         <v>995</v>
       </c>
@@ -23345,7 +23344,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="997" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A997" s="2">
         <v>996</v>
       </c>
@@ -23362,7 +23361,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="998" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A998" s="2">
         <v>997</v>
       </c>
@@ -23379,7 +23378,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="999" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A999" s="2">
         <v>998</v>
       </c>
@@ -23396,7 +23395,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1000" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1000" s="2">
         <v>999</v>
       </c>
@@ -23413,7 +23412,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1001" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1001" s="2">
         <v>1000</v>
       </c>
@@ -23430,7 +23429,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1002" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1002" s="2">
         <v>1001</v>
       </c>
@@ -23447,7 +23446,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1003" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A1003" s="2">
         <v>1002</v>
       </c>
@@ -23464,7 +23463,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1004" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1004" s="2">
         <v>1003</v>
       </c>
@@ -23481,7 +23480,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1005" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1005" s="2">
         <v>1004</v>
       </c>
@@ -23498,7 +23497,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1006" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1006" s="2">
         <v>1005</v>
       </c>
@@ -23515,7 +23514,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1007" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1007" s="2">
         <v>1006</v>
       </c>
@@ -23532,7 +23531,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1008" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1008" s="2">
         <v>1007</v>
       </c>
@@ -23549,7 +23548,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1009" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1009" s="2">
         <v>1008</v>
       </c>
@@ -23566,7 +23565,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1010" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1010" s="2">
         <v>1009</v>
       </c>
@@ -23583,7 +23582,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1011" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1011" s="2">
         <v>1010</v>
       </c>
@@ -23600,7 +23599,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1012" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1012" s="2">
         <v>1011</v>
       </c>
@@ -23617,7 +23616,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1013" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1013" s="2">
         <v>1012</v>
       </c>
@@ -23634,7 +23633,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1014" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1014" s="2">
         <v>1013</v>
       </c>
@@ -23651,7 +23650,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1015" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1015" s="2">
         <v>1014</v>
       </c>
@@ -23668,7 +23667,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1016" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1016" s="2">
         <v>1015</v>
       </c>
@@ -23685,7 +23684,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1017" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1017" s="2">
         <v>1016</v>
       </c>
@@ -23702,7 +23701,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1018" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1018" s="2">
         <v>1017</v>
       </c>
@@ -23719,7 +23718,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1019" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1019" s="2">
         <v>1018</v>
       </c>
@@ -23736,7 +23735,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1020" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1020" s="2">
         <v>1019</v>
       </c>
@@ -23753,7 +23752,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1021" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1021" s="2">
         <v>1020</v>
       </c>
@@ -23770,7 +23769,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1022" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A1022" s="2">
         <v>1021</v>
       </c>
@@ -23787,7 +23786,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1023" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1023" s="2">
         <v>1022</v>
       </c>
@@ -23804,7 +23803,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1024" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1024" s="2">
         <v>1023</v>
       </c>
@@ -23821,7 +23820,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1025" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1025" s="2">
         <v>1024</v>
       </c>
@@ -23838,7 +23837,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1026" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1026" s="2">
         <v>1025</v>
       </c>
@@ -23855,7 +23854,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1027" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1027" s="2">
         <v>1026</v>
       </c>
@@ -23872,7 +23871,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1028" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1028" s="2">
         <v>1027</v>
       </c>
@@ -23889,7 +23888,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1029" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1029" s="2">
         <v>1028</v>
       </c>
@@ -23906,7 +23905,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1030" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A1030" s="2">
         <v>1029</v>
       </c>
@@ -23923,7 +23922,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1031" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A1031" s="2">
         <v>1030</v>
       </c>
@@ -23940,7 +23939,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1032" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A1032" s="2">
         <v>1031</v>
       </c>
@@ -23957,7 +23956,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1033" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1033" s="2">
         <v>1032</v>
       </c>
@@ -23974,7 +23973,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1034" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1034" s="2">
         <v>1033</v>
       </c>
@@ -23991,7 +23990,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1035" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1035" s="2">
         <v>1034</v>
       </c>
@@ -24008,7 +24007,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1036" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1036" s="2">
         <v>1035</v>
       </c>
@@ -24025,7 +24024,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1037" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1037" s="2">
         <v>1036</v>
       </c>
@@ -24042,7 +24041,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1038" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1038" s="2">
         <v>1037</v>
       </c>
@@ -24059,7 +24058,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1039" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1039" s="2">
         <v>1038</v>
       </c>
@@ -24076,7 +24075,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1040" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1040" s="2">
         <v>1039</v>
       </c>
@@ -24093,7 +24092,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1041" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1041" s="2">
         <v>1040</v>
       </c>
@@ -24110,7 +24109,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1042" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1042" s="2">
         <v>1041</v>
       </c>
@@ -24127,7 +24126,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1043" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1043" s="2">
         <v>1042</v>
       </c>
@@ -24144,7 +24143,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1044" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1044" s="2">
         <v>1043</v>
       </c>
@@ -24161,7 +24160,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1045" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1045" s="2">
         <v>1044</v>
       </c>
@@ -24178,7 +24177,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1046" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1046" s="2">
         <v>1045</v>
       </c>
@@ -24195,7 +24194,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1047" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1047" s="2">
         <v>1046</v>
       </c>
@@ -24212,7 +24211,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1048" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1048" s="2">
         <v>1047</v>
       </c>
@@ -24229,7 +24228,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1049" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A1049" s="2">
         <v>1048</v>
       </c>
@@ -24246,7 +24245,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1050" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1050" s="2">
         <v>1049</v>
       </c>
@@ -24263,7 +24262,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1051" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1051" s="2">
         <v>1050</v>
       </c>
@@ -24280,7 +24279,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1052" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1052" s="2">
         <v>1051</v>
       </c>
@@ -24297,7 +24296,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1053" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1053" s="2">
         <v>1052</v>
       </c>
@@ -24314,7 +24313,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1054" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1054" s="2">
         <v>1053</v>
       </c>
@@ -24331,7 +24330,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1055" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1055" s="2">
         <v>1054</v>
       </c>
@@ -24348,7 +24347,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1056" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1056" s="2">
         <v>1055</v>
       </c>
@@ -24365,7 +24364,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1057" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1057" s="2">
         <v>1056</v>
       </c>
@@ -24382,7 +24381,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1058" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1058" s="2">
         <v>1057</v>
       </c>
@@ -24399,7 +24398,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1059" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1059" s="2">
         <v>1058</v>
       </c>
@@ -24416,7 +24415,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1060" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1060" s="2">
         <v>1059</v>
       </c>
@@ -24433,7 +24432,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1061" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1061" s="2">
         <v>1060</v>
       </c>
@@ -24450,7 +24449,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1062" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1062" s="2">
         <v>1061</v>
       </c>
@@ -24467,7 +24466,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1063" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1063" s="2">
         <v>1062</v>
       </c>
@@ -24484,7 +24483,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1064" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1064" s="2">
         <v>1063</v>
       </c>
@@ -24501,7 +24500,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1065" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1065" s="2">
         <v>1064</v>
       </c>
@@ -24518,7 +24517,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1066" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1066" s="2">
         <v>1065</v>
       </c>
@@ -24535,7 +24534,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1067" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A1067" s="2">
         <v>1066</v>
       </c>
@@ -24552,7 +24551,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1068" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1068" s="2">
         <v>1067</v>
       </c>
@@ -24569,7 +24568,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1069" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1069" s="2">
         <v>1068</v>
       </c>
@@ -24586,7 +24585,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1070" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1070" s="2">
         <v>1069</v>
       </c>
@@ -24603,7 +24602,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1071" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1071" s="2">
         <v>1070</v>
       </c>
@@ -24620,7 +24619,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1072" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1072" s="2">
         <v>1071</v>
       </c>
@@ -24637,7 +24636,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1073" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1073" s="2">
         <v>1072</v>
       </c>
@@ -24654,7 +24653,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1074" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1074" s="2">
         <v>1073</v>
       </c>
@@ -24671,7 +24670,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1075" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1075" s="2">
         <v>1074</v>
       </c>
@@ -24688,7 +24687,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1076" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1076" s="2">
         <v>1075</v>
       </c>
@@ -24705,7 +24704,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1077" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1077" s="2">
         <v>1076</v>
       </c>
@@ -24722,7 +24721,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1078" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1078" s="2">
         <v>1077</v>
       </c>
@@ -24739,7 +24738,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1079" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A1079" s="2">
         <v>1078</v>
       </c>
@@ -24756,7 +24755,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1080" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A1080" s="2">
         <v>1079</v>
       </c>
@@ -24773,7 +24772,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1081" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1081" s="2">
         <v>1080</v>
       </c>
@@ -24790,7 +24789,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1082" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1082" s="2">
         <v>1081</v>
       </c>
@@ -24807,7 +24806,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1083" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A1083" s="2">
         <v>1082</v>
       </c>
@@ -24824,7 +24823,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1084" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A1084" s="2">
         <v>1083</v>
       </c>
@@ -24841,7 +24840,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1085" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A1085" s="2">
         <v>1084</v>
       </c>
@@ -24858,7 +24857,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1086" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A1086" s="2">
         <v>1085</v>
       </c>
@@ -24875,7 +24874,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1087" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1087" s="2">
         <v>1086</v>
       </c>
@@ -24892,7 +24891,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1088" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A1088" s="2">
         <v>1087</v>
       </c>
@@ -24909,7 +24908,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1089" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A1089" s="2">
         <v>1088</v>
       </c>
@@ -24926,7 +24925,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1090" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A1090" s="2">
         <v>1089</v>
       </c>
@@ -24943,7 +24942,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1091" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1091" s="2">
         <v>1090</v>
       </c>
@@ -24960,7 +24959,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1092" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A1092" s="2">
         <v>1091</v>
       </c>
@@ -24977,7 +24976,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1093" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A1093" s="2">
         <v>1092</v>
       </c>
@@ -24994,7 +24993,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1094" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1094" s="2">
         <v>1093</v>
       </c>
@@ -25011,7 +25010,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1095" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A1095" s="2">
         <v>1094</v>
       </c>
@@ -25028,7 +25027,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1096" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A1096" s="2">
         <v>1095</v>
       </c>
@@ -25045,7 +25044,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1097" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1097" s="2">
         <v>1096</v>
       </c>
@@ -25062,7 +25061,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1098" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1098" s="2">
         <v>1097</v>
       </c>
@@ -25079,7 +25078,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1099" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1099" s="2">
         <v>1098</v>
       </c>
@@ -25096,7 +25095,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1100" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1100" s="2">
         <v>1099</v>
       </c>
@@ -25113,7 +25112,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1101" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1101" s="2">
         <v>1100</v>
       </c>
@@ -25130,7 +25129,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1102" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1102" s="2">
         <v>1101</v>
       </c>
@@ -25147,7 +25146,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1103" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1103" s="2">
         <v>1102</v>
       </c>
@@ -25164,7 +25163,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1104" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1104" s="2">
         <v>1103</v>
       </c>
@@ -25181,7 +25180,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1105" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1105" s="2">
         <v>1104</v>
       </c>
@@ -25198,7 +25197,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1106" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A1106" s="2">
         <v>1105</v>
       </c>
@@ -25215,7 +25214,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1107" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1107" s="2">
         <v>1106</v>
       </c>
@@ -25232,7 +25231,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1108" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1108" s="2">
         <v>1107</v>
       </c>
@@ -25249,7 +25248,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1109" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1109" s="2">
         <v>1108</v>
       </c>
@@ -25266,7 +25265,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1110" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1110" s="2">
         <v>1109</v>
       </c>
@@ -25283,7 +25282,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1111" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1111" s="2">
         <v>1110</v>
       </c>
@@ -25300,7 +25299,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1112" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1112" s="2">
         <v>1111</v>
       </c>
@@ -25317,7 +25316,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1113" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1113" s="2">
         <v>1112</v>
       </c>
@@ -25334,7 +25333,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1114" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1114" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1114" s="2">
         <v>1113</v>
       </c>
@@ -25351,7 +25350,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1115" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1115" s="2">
         <v>1114</v>
       </c>
@@ -25368,7 +25367,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1116" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1116" s="2">
         <v>1115</v>
       </c>
@@ -25385,7 +25384,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1117" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1117" s="2">
         <v>1116</v>
       </c>
@@ -25402,7 +25401,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1118" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1118" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1118" s="2">
         <v>1117</v>
       </c>
@@ -25419,7 +25418,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1119" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1119" s="2">
         <v>1118</v>
       </c>
@@ -25436,7 +25435,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1120" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1120" s="2">
         <v>1119</v>
       </c>
@@ -25453,7 +25452,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1121" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1121" s="2">
         <v>1120</v>
       </c>
@@ -25470,7 +25469,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1122" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1122" s="2">
         <v>1121</v>
       </c>
@@ -25487,7 +25486,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1123" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1123" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1123" s="2">
         <v>1122</v>
       </c>
@@ -25504,7 +25503,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1124" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1124" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1124" s="2">
         <v>1123</v>
       </c>
@@ -25521,7 +25520,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1125" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1125" s="2">
         <v>1124</v>
       </c>
@@ -25538,7 +25537,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1126" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1126" s="2">
         <v>1125</v>
       </c>
@@ -25555,7 +25554,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1127" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1127" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A1127" s="2">
         <v>1126</v>
       </c>
@@ -25572,7 +25571,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1128" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1128" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A1128" s="2">
         <v>1127</v>
       </c>
@@ -25589,7 +25588,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1129" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1129" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A1129" s="2">
         <v>1128</v>
       </c>
@@ -25606,7 +25605,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1130" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1130" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A1130" s="2">
         <v>1129</v>
       </c>
@@ -25623,7 +25622,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1131" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1131" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A1131" s="2">
         <v>1130</v>
       </c>
@@ -25640,7 +25639,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1132" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A1132" s="2">
         <v>1131</v>
       </c>
@@ -25657,7 +25656,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1133" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A1133" s="2">
         <v>1132</v>
       </c>
@@ -25674,7 +25673,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1134" spans="1:5" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A1134" s="2">
         <v>1133</v>
       </c>
@@ -25691,7 +25690,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1135" spans="1:5" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A1135" s="2">
         <v>1134</v>
       </c>
@@ -25708,7 +25707,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1136" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A1136" s="2">
         <v>1135</v>
       </c>
@@ -25725,7 +25724,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1137" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1137" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A1137" s="2">
         <v>1136</v>
       </c>
@@ -25742,7 +25741,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1138" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1138" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A1138" s="2">
         <v>1137</v>
       </c>
@@ -25759,7 +25758,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1139" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1139" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1139" s="2">
         <v>1138</v>
       </c>
@@ -25776,7 +25775,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1140" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1140" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A1140" s="2">
         <v>1139</v>
       </c>
@@ -25793,7 +25792,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1141" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1141" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A1141" s="2">
         <v>1140</v>
       </c>
@@ -25810,7 +25809,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1142" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1142" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A1142" s="2">
         <v>1141</v>
       </c>
@@ -25827,7 +25826,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1143" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1143" s="2">
         <v>1142</v>
       </c>
@@ -25844,7 +25843,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1144" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1144" s="2">
         <v>1143</v>
       </c>
@@ -25861,7 +25860,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1145" spans="1:5" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A1145" s="2">
         <v>1144</v>
       </c>
@@ -25878,7 +25877,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1146" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1146" s="2">
         <v>1145</v>
       </c>
@@ -25895,7 +25894,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1147" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1147" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1147" s="2">
         <v>1146</v>
       </c>
@@ -25912,7 +25911,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1148" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1148" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A1148" s="2">
         <v>1147</v>
       </c>
@@ -25929,7 +25928,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1149" spans="1:5" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1149" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1149" s="2">
         <v>1148</v>
       </c>
@@ -25946,7 +25945,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1150" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1150" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A1150" s="2">
         <v>1149</v>
       </c>
@@ -25963,7 +25962,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1151" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1151" s="2">
         <v>1150</v>
       </c>
@@ -25978,7 +25977,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1152" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1152" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A1152" s="2">
         <v>1151</v>
       </c>
@@ -25995,7 +25994,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1153" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1153" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1153" s="2">
         <v>1152</v>
       </c>
@@ -26012,7 +26011,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1154" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1154" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1154" s="2">
         <v>1153</v>
       </c>
@@ -26029,7 +26028,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1155" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A1155" s="2">
         <v>1154</v>
       </c>
@@ -26046,7 +26045,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1156" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A1156" s="2">
         <v>1155</v>
       </c>
@@ -26063,7 +26062,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1157" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A1157" s="2">
         <v>1156</v>
       </c>
@@ -26080,7 +26079,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1158" spans="1:5" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1158" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A1158" s="2">
         <v>1157</v>
       </c>
@@ -26097,7 +26096,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1159" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1159" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1159" s="2">
         <v>1158</v>
       </c>
@@ -26114,7 +26113,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1160" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1160" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1160" s="2">
         <v>1159</v>
       </c>
@@ -26131,7 +26130,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1161" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1161" s="2">
         <v>1160</v>
       </c>
@@ -26148,7 +26147,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1162" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1162" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1162" s="2">
         <v>1161</v>
       </c>
@@ -26165,7 +26164,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1163" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1163" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1163" s="2">
         <v>1162</v>
       </c>
@@ -26182,7 +26181,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1164" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1164" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A1164" s="2">
         <v>1163</v>
       </c>
@@ -26200,13 +26199,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1164">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Calculus"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E1164"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>